--- a/Logitech.xlsx
+++ b/Logitech.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\logi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466565B9-DA00-4275-8E5C-4D44933502F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7891F35-7C02-4678-885E-3FECC350B1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input sheet" sheetId="11" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <sheet name="Sheet1" sheetId="33" r:id="rId19"/>
     <sheet name="Answer keys" sheetId="21" r:id="rId20"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId21"/>
-  </externalReferences>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -7012,6 +7009,7 @@
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7083,28 +7081,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="76" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7114,6 +7094,12 @@
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7265,29 +7251,17 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="50" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7326,6 +7300,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="82" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7523,7 +7521,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -8199,30 +8196,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="main"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="W1">
-            <v>55.6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Aswath Damodaran" id="{B8988432-A585-3645-9E20-E422F2920603}" userId="589fc2f8758a430e" providerId="Windows Live"/>
@@ -8913,18 +8886,18 @@
       <c r="J4" s="409"/>
     </row>
     <row r="5" spans="1:10" s="192" customFormat="1" ht="16.2" thickBot="1">
-      <c r="A5" s="530" t="s">
+      <c r="A5" s="531" t="s">
         <v>904</v>
       </c>
-      <c r="B5" s="531"/>
-      <c r="C5" s="531"/>
-      <c r="D5" s="531"/>
-      <c r="E5" s="531"/>
-      <c r="F5" s="531"/>
-      <c r="G5" s="531"/>
-      <c r="H5" s="531"/>
-      <c r="I5" s="531"/>
-      <c r="J5" s="532"/>
+      <c r="B5" s="532"/>
+      <c r="C5" s="532"/>
+      <c r="D5" s="532"/>
+      <c r="E5" s="532"/>
+      <c r="F5" s="532"/>
+      <c r="G5" s="532"/>
+      <c r="H5" s="532"/>
+      <c r="I5" s="532"/>
+      <c r="J5" s="533"/>
     </row>
     <row r="6" spans="1:10" s="192" customFormat="1" ht="16.2" thickBot="1">
       <c r="A6" s="193" t="s">
@@ -8947,12 +8920,12 @@
         <v>327</v>
       </c>
       <c r="C7" s="193"/>
-      <c r="F7" s="544" t="s">
+      <c r="F7" s="545" t="s">
         <v>981</v>
       </c>
-      <c r="G7" s="545"/>
-      <c r="H7" s="545"/>
-      <c r="I7" s="546"/>
+      <c r="G7" s="546"/>
+      <c r="H7" s="546"/>
+      <c r="I7" s="547"/>
     </row>
     <row r="8" spans="1:10" s="192" customFormat="1" ht="15.6">
       <c r="A8" s="192" t="s">
@@ -8961,10 +8934,10 @@
       <c r="B8" s="195" t="s">
         <v>654</v>
       </c>
-      <c r="F8" s="547"/>
-      <c r="G8" s="548"/>
-      <c r="H8" s="548"/>
-      <c r="I8" s="549"/>
+      <c r="F8" s="548"/>
+      <c r="G8" s="549"/>
+      <c r="H8" s="549"/>
+      <c r="I8" s="550"/>
     </row>
     <row r="9" spans="1:10" s="192" customFormat="1" ht="15.6">
       <c r="A9" s="192" t="s">
@@ -8975,10 +8948,10 @@
       </c>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="F9" s="547"/>
-      <c r="G9" s="548"/>
-      <c r="H9" s="548"/>
-      <c r="I9" s="549"/>
+      <c r="F9" s="548"/>
+      <c r="G9" s="549"/>
+      <c r="H9" s="549"/>
+      <c r="I9" s="550"/>
     </row>
     <row r="10" spans="1:10" s="192" customFormat="1" ht="15.6">
       <c r="B10" s="348" t="s">
@@ -8990,10 +8963,10 @@
       <c r="D10" s="412" t="s">
         <v>497</v>
       </c>
-      <c r="F10" s="547"/>
-      <c r="G10" s="548"/>
-      <c r="H10" s="548"/>
-      <c r="I10" s="549"/>
+      <c r="F10" s="548"/>
+      <c r="G10" s="549"/>
+      <c r="H10" s="549"/>
+      <c r="I10" s="550"/>
     </row>
     <row r="11" spans="1:10" s="192" customFormat="1" ht="16.2" thickBot="1">
       <c r="A11" s="197" t="s">
@@ -9006,13 +8979,13 @@
       <c r="C11" s="411">
         <v>4298.4669999999996</v>
       </c>
-      <c r="D11" s="543">
+      <c r="D11" s="544">
         <v>0.25</v>
       </c>
-      <c r="F11" s="550"/>
-      <c r="G11" s="551"/>
-      <c r="H11" s="551"/>
-      <c r="I11" s="552"/>
+      <c r="F11" s="551"/>
+      <c r="G11" s="552"/>
+      <c r="H11" s="552"/>
+      <c r="I11" s="553"/>
     </row>
     <row r="12" spans="1:10" s="192" customFormat="1" ht="15.6">
       <c r="A12" s="197" t="s">
@@ -9025,7 +8998,7 @@
       <c r="C12" s="411">
         <v>587.33600000000001</v>
       </c>
-      <c r="D12" s="543"/>
+      <c r="D12" s="544"/>
     </row>
     <row r="13" spans="1:10" s="192" customFormat="1" ht="15.6">
       <c r="A13" s="197" t="s">
@@ -9037,7 +9010,7 @@
       <c r="C13" s="411">
         <v>0</v>
       </c>
-      <c r="D13" s="543"/>
+      <c r="D13" s="544"/>
     </row>
     <row r="14" spans="1:10" s="192" customFormat="1" ht="15.6">
       <c r="A14" s="197" t="s">
@@ -9049,7 +9022,7 @@
       <c r="C14" s="411">
         <v>2233.6529999999998</v>
       </c>
-      <c r="D14" s="543"/>
+      <c r="D14" s="544"/>
     </row>
     <row r="15" spans="1:10" s="192" customFormat="1" ht="15.6">
       <c r="A15" s="197" t="s">
@@ -9063,7 +9036,7 @@
         <f>15.107+61.92</f>
         <v>77.027000000000001</v>
       </c>
-      <c r="D15" s="543"/>
+      <c r="D15" s="544"/>
     </row>
     <row r="16" spans="1:10" s="192" customFormat="1" ht="15.6">
       <c r="A16" s="197" t="s">
@@ -9133,18 +9106,18 @@
         <v>154.97800000000001</v>
       </c>
       <c r="C21" s="199"/>
-      <c r="E21" s="540" t="s">
+      <c r="E21" s="541" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="541"/>
-      <c r="G21" s="541"/>
-      <c r="H21" s="541"/>
-      <c r="I21" s="541"/>
-      <c r="J21" s="541"/>
-      <c r="K21" s="541"/>
-      <c r="L21" s="541"/>
-      <c r="M21" s="541"/>
-      <c r="N21" s="542"/>
+      <c r="F21" s="542"/>
+      <c r="G21" s="542"/>
+      <c r="H21" s="542"/>
+      <c r="I21" s="542"/>
+      <c r="J21" s="542"/>
+      <c r="K21" s="542"/>
+      <c r="L21" s="542"/>
+      <c r="M21" s="542"/>
+      <c r="N21" s="543"/>
     </row>
     <row r="22" spans="1:14" s="192" customFormat="1" ht="15.6">
       <c r="A22" s="197" t="s">
@@ -9174,11 +9147,11 @@
       <c r="K23" s="196" t="s">
         <v>409</v>
       </c>
-      <c r="L23" s="538" t="s">
+      <c r="L23" s="539" t="s">
         <v>830</v>
       </c>
-      <c r="M23" s="538"/>
-      <c r="N23" s="539"/>
+      <c r="M23" s="539"/>
+      <c r="N23" s="540"/>
     </row>
     <row r="24" spans="1:14" s="192" customFormat="1" ht="15.6">
       <c r="A24" s="192" t="s">
@@ -9454,14 +9427,14 @@
       </c>
       <c r="B33" s="213"/>
       <c r="C33" s="199"/>
-      <c r="E33" s="533" t="s">
+      <c r="E33" s="534" t="s">
         <v>485</v>
       </c>
-      <c r="F33" s="534"/>
-      <c r="G33" s="534"/>
-      <c r="H33" s="534"/>
-      <c r="I33" s="534"/>
-      <c r="J33" s="535"/>
+      <c r="F33" s="535"/>
+      <c r="G33" s="535"/>
+      <c r="H33" s="535"/>
+      <c r="I33" s="535"/>
+      <c r="J33" s="536"/>
     </row>
     <row r="34" spans="1:14" s="192" customFormat="1" ht="15.6">
       <c r="A34" s="197" t="s">
@@ -9487,10 +9460,10 @@
         <f>'Cost of capital worksheet'!B13</f>
         <v>9.4969838568748674E-2</v>
       </c>
-      <c r="C35" s="536" t="s">
+      <c r="C35" s="537" t="s">
         <v>744</v>
       </c>
-      <c r="D35" s="537"/>
+      <c r="D35" s="538"/>
       <c r="E35" s="205" t="s">
         <v>488</v>
       </c>
@@ -9602,10 +9575,10 @@
       <c r="N42" s="192"/>
     </row>
     <row r="43" spans="1:14" s="192" customFormat="1" ht="15.6">
-      <c r="A43" s="529" t="s">
+      <c r="A43" s="530" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="529"/>
+      <c r="B43" s="530"/>
       <c r="C43" s="221"/>
       <c r="D43" s="199"/>
       <c r="N43" s="219"/>
@@ -11622,13 +11595,13 @@
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="652" t="s">
+      <c r="H3" s="653" t="s">
         <v>722</v>
       </c>
-      <c r="I3" s="653"/>
-      <c r="J3" s="653"/>
-      <c r="K3" s="653"/>
-      <c r="L3" s="654"/>
+      <c r="I3" s="654"/>
+      <c r="J3" s="654"/>
+      <c r="K3" s="654"/>
+      <c r="L3" s="655"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="13.2">
       <c r="A4" s="6" t="s">
@@ -11637,21 +11610,21 @@
       <c r="E4" s="19">
         <v>295</v>
       </c>
-      <c r="H4" s="655"/>
-      <c r="I4" s="656"/>
-      <c r="J4" s="656"/>
-      <c r="K4" s="656"/>
-      <c r="L4" s="657"/>
+      <c r="H4" s="656"/>
+      <c r="I4" s="657"/>
+      <c r="J4" s="657"/>
+      <c r="K4" s="657"/>
+      <c r="L4" s="658"/>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" ht="13.2">
       <c r="A5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="655"/>
-      <c r="I5" s="656"/>
-      <c r="J5" s="656"/>
-      <c r="K5" s="656"/>
-      <c r="L5" s="657"/>
+      <c r="H5" s="656"/>
+      <c r="I5" s="657"/>
+      <c r="J5" s="657"/>
+      <c r="K5" s="657"/>
+      <c r="L5" s="658"/>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="13.2">
       <c r="A6" s="16" t="s">
@@ -11663,11 +11636,11 @@
       <c r="C6" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H6" s="655"/>
-      <c r="I6" s="656"/>
-      <c r="J6" s="656"/>
-      <c r="K6" s="656"/>
-      <c r="L6" s="657"/>
+      <c r="H6" s="656"/>
+      <c r="I6" s="657"/>
+      <c r="J6" s="657"/>
+      <c r="K6" s="657"/>
+      <c r="L6" s="658"/>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="13.2">
       <c r="A7" s="16">
@@ -11676,11 +11649,11 @@
       <c r="B7" s="169">
         <v>287</v>
       </c>
-      <c r="H7" s="655"/>
-      <c r="I7" s="656"/>
-      <c r="J7" s="656"/>
-      <c r="K7" s="656"/>
-      <c r="L7" s="657"/>
+      <c r="H7" s="656"/>
+      <c r="I7" s="657"/>
+      <c r="J7" s="657"/>
+      <c r="K7" s="657"/>
+      <c r="L7" s="658"/>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="13.2">
       <c r="A8" s="16">
@@ -11689,11 +11662,11 @@
       <c r="B8" s="169">
         <v>235</v>
       </c>
-      <c r="H8" s="655"/>
-      <c r="I8" s="656"/>
-      <c r="J8" s="656"/>
-      <c r="K8" s="656"/>
-      <c r="L8" s="657"/>
+      <c r="H8" s="656"/>
+      <c r="I8" s="657"/>
+      <c r="J8" s="657"/>
+      <c r="K8" s="657"/>
+      <c r="L8" s="658"/>
     </row>
     <row r="9" spans="1:12" s="6" customFormat="1" ht="13.2">
       <c r="A9" s="16">
@@ -11702,11 +11675,11 @@
       <c r="B9" s="169">
         <v>194</v>
       </c>
-      <c r="H9" s="655"/>
-      <c r="I9" s="656"/>
-      <c r="J9" s="656"/>
-      <c r="K9" s="656"/>
-      <c r="L9" s="657"/>
+      <c r="H9" s="656"/>
+      <c r="I9" s="657"/>
+      <c r="J9" s="657"/>
+      <c r="K9" s="657"/>
+      <c r="L9" s="658"/>
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="13.2">
       <c r="A10" s="16">
@@ -11715,11 +11688,11 @@
       <c r="B10" s="169">
         <v>151</v>
       </c>
-      <c r="H10" s="655"/>
-      <c r="I10" s="656"/>
-      <c r="J10" s="656"/>
-      <c r="K10" s="656"/>
-      <c r="L10" s="657"/>
+      <c r="H10" s="656"/>
+      <c r="I10" s="657"/>
+      <c r="J10" s="657"/>
+      <c r="K10" s="657"/>
+      <c r="L10" s="658"/>
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="13.8" thickBot="1">
       <c r="A11" s="16">
@@ -11728,11 +11701,11 @@
       <c r="B11" s="169">
         <v>98</v>
       </c>
-      <c r="H11" s="658"/>
-      <c r="I11" s="659"/>
-      <c r="J11" s="659"/>
-      <c r="K11" s="659"/>
-      <c r="L11" s="660"/>
+      <c r="H11" s="659"/>
+      <c r="I11" s="660"/>
+      <c r="J11" s="660"/>
+      <c r="K11" s="660"/>
+      <c r="L11" s="661"/>
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="13.8">
       <c r="A12" s="16" t="s">
@@ -11978,53 +11951,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="674" t="s">
+      <c r="A1" s="675" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="674"/>
-      <c r="C1" s="674"/>
-      <c r="D1" s="674"/>
-      <c r="E1" s="674"/>
-      <c r="F1" s="674"/>
-      <c r="G1" s="674"/>
-      <c r="H1" s="674"/>
-      <c r="I1" s="674"/>
-      <c r="J1" s="674"/>
-      <c r="K1" s="674"/>
+      <c r="B1" s="675"/>
+      <c r="C1" s="675"/>
+      <c r="D1" s="675"/>
+      <c r="E1" s="675"/>
+      <c r="F1" s="675"/>
+      <c r="G1" s="675"/>
+      <c r="H1" s="675"/>
+      <c r="I1" s="675"/>
+      <c r="J1" s="675"/>
+      <c r="K1" s="675"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="674"/>
-      <c r="B2" s="674"/>
-      <c r="C2" s="674"/>
-      <c r="D2" s="674"/>
-      <c r="E2" s="674"/>
-      <c r="F2" s="674"/>
-      <c r="G2" s="674"/>
-      <c r="H2" s="674"/>
-      <c r="I2" s="674"/>
-      <c r="J2" s="674"/>
-      <c r="K2" s="674"/>
+      <c r="A2" s="675"/>
+      <c r="B2" s="675"/>
+      <c r="C2" s="675"/>
+      <c r="D2" s="675"/>
+      <c r="E2" s="675"/>
+      <c r="F2" s="675"/>
+      <c r="G2" s="675"/>
+      <c r="H2" s="675"/>
+      <c r="I2" s="675"/>
+      <c r="J2" s="675"/>
+      <c r="K2" s="675"/>
     </row>
     <row r="3" spans="1:17" s="59" customFormat="1" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="675" t="s">
+      <c r="A3" s="676" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="675"/>
-      <c r="C3" s="675"/>
-      <c r="D3" s="675"/>
-      <c r="E3" s="675"/>
+      <c r="B3" s="676"/>
+      <c r="C3" s="676"/>
+      <c r="D3" s="676"/>
+      <c r="E3" s="676"/>
       <c r="G3" s="72" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="663" t="s">
+      <c r="A4" s="664" t="s">
         <v>861</v>
       </c>
-      <c r="B4" s="664"/>
-      <c r="C4" s="664"/>
-      <c r="D4" s="664"/>
-      <c r="E4" s="665"/>
+      <c r="B4" s="665"/>
+      <c r="C4" s="665"/>
+      <c r="D4" s="665"/>
+      <c r="E4" s="666"/>
       <c r="F4" s="59"/>
       <c r="G4" s="83" t="s">
         <v>332</v>
@@ -12043,11 +12016,11 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="666"/>
-      <c r="B5" s="667"/>
-      <c r="C5" s="667"/>
-      <c r="D5" s="667"/>
-      <c r="E5" s="668"/>
+      <c r="A5" s="667"/>
+      <c r="B5" s="668"/>
+      <c r="C5" s="668"/>
+      <c r="D5" s="668"/>
+      <c r="E5" s="669"/>
       <c r="F5" s="59"/>
       <c r="G5" s="81" t="s">
         <v>327</v>
@@ -12068,20 +12041,20 @@
         <f t="shared" ref="K5:K12" si="1">IF(J5=0,0,I5*J5)</f>
         <v>1.5154999999999998E-2</v>
       </c>
-      <c r="M5" s="673" t="s">
+      <c r="M5" s="674" t="s">
         <v>529</v>
       </c>
-      <c r="N5" s="673"/>
-      <c r="O5" s="673"/>
-      <c r="P5" s="673"/>
-      <c r="Q5" s="673"/>
+      <c r="N5" s="674"/>
+      <c r="O5" s="674"/>
+      <c r="P5" s="674"/>
+      <c r="Q5" s="674"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="666"/>
-      <c r="B6" s="667"/>
-      <c r="C6" s="667"/>
-      <c r="D6" s="667"/>
-      <c r="E6" s="668"/>
+      <c r="A6" s="667"/>
+      <c r="B6" s="668"/>
+      <c r="C6" s="668"/>
+      <c r="D6" s="668"/>
+      <c r="E6" s="669"/>
       <c r="F6" s="59"/>
       <c r="G6" s="81" t="s">
         <v>265</v>
@@ -12102,18 +12075,18 @@
         <f t="shared" si="1"/>
         <v>6.4949999999999999E-3</v>
       </c>
-      <c r="M6" s="673"/>
-      <c r="N6" s="673"/>
-      <c r="O6" s="673"/>
-      <c r="P6" s="673"/>
-      <c r="Q6" s="673"/>
+      <c r="M6" s="674"/>
+      <c r="N6" s="674"/>
+      <c r="O6" s="674"/>
+      <c r="P6" s="674"/>
+      <c r="Q6" s="674"/>
     </row>
     <row r="7" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="666"/>
-      <c r="B7" s="667"/>
-      <c r="C7" s="667"/>
-      <c r="D7" s="667"/>
-      <c r="E7" s="668"/>
+      <c r="A7" s="667"/>
+      <c r="B7" s="668"/>
+      <c r="C7" s="668"/>
+      <c r="D7" s="668"/>
+      <c r="E7" s="669"/>
       <c r="F7" s="59"/>
       <c r="G7" s="81"/>
       <c r="H7" s="81"/>
@@ -12129,18 +12102,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="673"/>
-      <c r="N7" s="673"/>
-      <c r="O7" s="673"/>
-      <c r="P7" s="673"/>
-      <c r="Q7" s="673"/>
+      <c r="M7" s="674"/>
+      <c r="N7" s="674"/>
+      <c r="O7" s="674"/>
+      <c r="P7" s="674"/>
+      <c r="Q7" s="674"/>
     </row>
     <row r="8" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="666"/>
-      <c r="B8" s="667"/>
-      <c r="C8" s="667"/>
-      <c r="D8" s="667"/>
-      <c r="E8" s="668"/>
+      <c r="A8" s="667"/>
+      <c r="B8" s="668"/>
+      <c r="C8" s="668"/>
+      <c r="D8" s="668"/>
+      <c r="E8" s="669"/>
       <c r="F8" s="59"/>
       <c r="G8" s="81"/>
       <c r="H8" s="81"/>
@@ -12156,18 +12129,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M8" s="673"/>
-      <c r="N8" s="673"/>
-      <c r="O8" s="673"/>
-      <c r="P8" s="673"/>
-      <c r="Q8" s="673"/>
+      <c r="M8" s="674"/>
+      <c r="N8" s="674"/>
+      <c r="O8" s="674"/>
+      <c r="P8" s="674"/>
+      <c r="Q8" s="674"/>
     </row>
     <row r="9" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="669"/>
-      <c r="B9" s="670"/>
-      <c r="C9" s="670"/>
-      <c r="D9" s="670"/>
-      <c r="E9" s="671"/>
+      <c r="A9" s="670"/>
+      <c r="B9" s="671"/>
+      <c r="C9" s="671"/>
+      <c r="D9" s="671"/>
+      <c r="E9" s="672"/>
       <c r="F9" s="59"/>
       <c r="G9" s="81"/>
       <c r="H9" s="81"/>
@@ -12183,11 +12156,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="673"/>
-      <c r="N9" s="673"/>
-      <c r="O9" s="673"/>
-      <c r="P9" s="673"/>
-      <c r="Q9" s="673"/>
+      <c r="M9" s="674"/>
+      <c r="N9" s="674"/>
+      <c r="O9" s="674"/>
+      <c r="P9" s="674"/>
+      <c r="Q9" s="674"/>
     </row>
     <row r="10" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="185"/>
@@ -12210,11 +12183,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="673"/>
-      <c r="N10" s="673"/>
-      <c r="O10" s="673"/>
-      <c r="P10" s="673"/>
-      <c r="Q10" s="673"/>
+      <c r="M10" s="674"/>
+      <c r="N10" s="674"/>
+      <c r="O10" s="674"/>
+      <c r="P10" s="674"/>
+      <c r="Q10" s="674"/>
     </row>
     <row r="11" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="185" t="s">
@@ -12241,11 +12214,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="673"/>
-      <c r="N11" s="673"/>
-      <c r="O11" s="673"/>
-      <c r="P11" s="673"/>
-      <c r="Q11" s="673"/>
+      <c r="M11" s="674"/>
+      <c r="N11" s="674"/>
+      <c r="O11" s="674"/>
+      <c r="P11" s="674"/>
+      <c r="Q11" s="674"/>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="185" t="s">
@@ -12272,11 +12245,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="673"/>
-      <c r="N12" s="673"/>
-      <c r="O12" s="673"/>
-      <c r="P12" s="673"/>
-      <c r="Q12" s="673"/>
+      <c r="M12" s="674"/>
+      <c r="N12" s="674"/>
+      <c r="O12" s="674"/>
+      <c r="P12" s="674"/>
+      <c r="Q12" s="674"/>
     </row>
     <row r="13" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="185" t="s">
@@ -12304,11 +12277,11 @@
         <f>IF(J13=0,0,I13*J13)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="673"/>
-      <c r="N13" s="673"/>
-      <c r="O13" s="673"/>
-      <c r="P13" s="673"/>
-      <c r="Q13" s="673"/>
+      <c r="M13" s="674"/>
+      <c r="N13" s="674"/>
+      <c r="O13" s="674"/>
+      <c r="P13" s="674"/>
+      <c r="Q13" s="674"/>
     </row>
     <row r="14" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="185"/>
@@ -12331,21 +12304,21 @@
         <f>IF(J14=0,0,I14*J14)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="673"/>
-      <c r="N14" s="673"/>
-      <c r="O14" s="673"/>
-      <c r="P14" s="673"/>
-      <c r="Q14" s="673"/>
+      <c r="M14" s="674"/>
+      <c r="N14" s="674"/>
+      <c r="O14" s="674"/>
+      <c r="P14" s="674"/>
+      <c r="Q14" s="674"/>
     </row>
     <row r="15" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="676" t="s">
+      <c r="A15" s="677" t="s">
         <v>724</v>
       </c>
-      <c r="B15" s="677"/>
-      <c r="C15" s="677"/>
-      <c r="D15" s="677"/>
-      <c r="E15" s="677"/>
-      <c r="F15" s="678"/>
+      <c r="B15" s="678"/>
+      <c r="C15" s="678"/>
+      <c r="D15" s="678"/>
+      <c r="E15" s="678"/>
+      <c r="F15" s="679"/>
       <c r="G15" s="81"/>
       <c r="H15" s="81"/>
       <c r="I15" s="66">
@@ -12360,11 +12333,11 @@
         <f>IF(J15=0,0,I15*J15)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="673"/>
-      <c r="N15" s="673"/>
-      <c r="O15" s="673"/>
-      <c r="P15" s="673"/>
-      <c r="Q15" s="673"/>
+      <c r="M15" s="674"/>
+      <c r="N15" s="674"/>
+      <c r="O15" s="674"/>
+      <c r="P15" s="674"/>
+      <c r="Q15" s="674"/>
     </row>
     <row r="16" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="8" t="s">
@@ -12393,11 +12366,11 @@
         <f>IF(J16=0,0,I16*J16)</f>
         <v>3.2050000000000002E-2</v>
       </c>
-      <c r="M16" s="673"/>
-      <c r="N16" s="673"/>
-      <c r="O16" s="673"/>
-      <c r="P16" s="673"/>
-      <c r="Q16" s="673"/>
+      <c r="M16" s="674"/>
+      <c r="N16" s="674"/>
+      <c r="O16" s="674"/>
+      <c r="P16" s="674"/>
+      <c r="Q16" s="674"/>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="11" t="s">
@@ -12415,11 +12388,11 @@
         <f>IF(J17=0,0,I17*J17)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="673"/>
-      <c r="N17" s="673"/>
-      <c r="O17" s="673"/>
-      <c r="P17" s="673"/>
-      <c r="Q17" s="673"/>
+      <c r="M17" s="674"/>
+      <c r="N17" s="674"/>
+      <c r="O17" s="674"/>
+      <c r="P17" s="674"/>
+      <c r="Q17" s="674"/>
     </row>
     <row r="18" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="6" t="s">
@@ -12445,11 +12418,11 @@
         <f>SUM(K5:K17)</f>
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="M18" s="673"/>
-      <c r="N18" s="673"/>
-      <c r="O18" s="673"/>
-      <c r="P18" s="673"/>
-      <c r="Q18" s="673"/>
+      <c r="M18" s="674"/>
+      <c r="N18" s="674"/>
+      <c r="O18" s="674"/>
+      <c r="P18" s="674"/>
+      <c r="Q18" s="674"/>
     </row>
     <row r="19" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="6" t="s">
@@ -12462,11 +12435,11 @@
       <c r="G19" s="72" t="s">
         <v>420</v>
       </c>
-      <c r="M19" s="673"/>
-      <c r="N19" s="673"/>
-      <c r="O19" s="673"/>
-      <c r="P19" s="673"/>
-      <c r="Q19" s="673"/>
+      <c r="M19" s="674"/>
+      <c r="N19" s="674"/>
+      <c r="O19" s="674"/>
+      <c r="P19" s="674"/>
+      <c r="Q19" s="674"/>
     </row>
     <row r="20" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="G20" s="12" t="s">
@@ -13075,11 +13048,11 @@
         <f>IF(I44=0,0,VLOOKUP(G44,'Industry Averages(US)'!$A$2:$S$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M44" s="672" t="s">
+      <c r="M44" s="673" t="s">
         <v>746</v>
       </c>
-      <c r="N44" s="672"/>
-      <c r="O44" s="672"/>
+      <c r="N44" s="673"/>
+      <c r="O44" s="673"/>
     </row>
     <row r="45" spans="1:15" ht="13.2">
       <c r="A45" s="6" t="s">
@@ -13111,9 +13084,9 @@
         <f>IF(I45=0,0,VLOOKUP(G45,'Industry Averages(US)'!$A$2:$S$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M45" s="672"/>
-      <c r="N45" s="672"/>
-      <c r="O45" s="672"/>
+      <c r="M45" s="673"/>
+      <c r="N45" s="673"/>
+      <c r="O45" s="673"/>
     </row>
     <row r="46" spans="1:15" ht="13.2">
       <c r="A46" s="6"/>
@@ -13140,9 +13113,9 @@
         <f>IF(I46=0,0,VLOOKUP(G46,'Industry Averages(US)'!$A$2:$S$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M46" s="672"/>
-      <c r="N46" s="672"/>
-      <c r="O46" s="672"/>
+      <c r="M46" s="673"/>
+      <c r="N46" s="673"/>
+      <c r="O46" s="673"/>
     </row>
     <row r="47" spans="1:15" ht="13.2">
       <c r="A47" s="11" t="s">
@@ -13171,9 +13144,9 @@
         <f>IF(I47=0,0,VLOOKUP(G47,'Industry Averages(US)'!$A$2:$S$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M47" s="672"/>
-      <c r="N47" s="672"/>
-      <c r="O47" s="672"/>
+      <c r="M47" s="673"/>
+      <c r="N47" s="673"/>
+      <c r="O47" s="673"/>
     </row>
     <row r="48" spans="1:15" ht="13.2">
       <c r="A48" s="6" t="s">
@@ -13206,9 +13179,9 @@
         <f>L36*(J36/J48)+L37*J37/J48+L38*J38/J48+L39*J39/J48+L40*J40/J48+L41*J41/J48+L42*J42/J48+L43*J43/J48+L44*J44/J48+L45*J45/J48+L46*J46/J48+L47*J47/J48</f>
         <v>8.6417060489087774E-2</v>
       </c>
-      <c r="M48" s="672"/>
-      <c r="N48" s="672"/>
-      <c r="O48" s="672"/>
+      <c r="M48" s="673"/>
+      <c r="N48" s="673"/>
+      <c r="O48" s="673"/>
     </row>
     <row r="49" spans="1:15" ht="13.2">
       <c r="A49" s="6" t="s">
@@ -13549,11 +13522,11 @@
         <f>IF(I60=0,0,VLOOKUP(G60,'Industry Average Beta (Global)'!$A$2:$M$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M60" s="672" t="s">
+      <c r="M60" s="673" t="s">
         <v>860</v>
       </c>
-      <c r="N60" s="672"/>
-      <c r="O60" s="672"/>
+      <c r="N60" s="673"/>
+      <c r="O60" s="673"/>
     </row>
     <row r="61" spans="1:15" ht="13.8" thickBot="1">
       <c r="A61" s="12" t="s">
@@ -13594,9 +13567,9 @@
         <f>IF(I61=0,0,VLOOKUP(G61,'Industry Average Beta (Global)'!$A$2:$M$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M61" s="672"/>
-      <c r="N61" s="672"/>
-      <c r="O61" s="672"/>
+      <c r="M61" s="673"/>
+      <c r="N61" s="673"/>
+      <c r="O61" s="673"/>
     </row>
     <row r="62" spans="1:15" ht="13.8" thickBot="1">
       <c r="A62" s="12" t="s">
@@ -13637,9 +13610,9 @@
         <f>IF(I62=0,0,VLOOKUP(G62,'Industry Average Beta (Global)'!$A$2:$M$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M62" s="672"/>
-      <c r="N62" s="672"/>
-      <c r="O62" s="672"/>
+      <c r="M62" s="673"/>
+      <c r="N62" s="673"/>
+      <c r="O62" s="673"/>
     </row>
     <row r="63" spans="1:15" ht="13.2">
       <c r="G63" s="81"/>
@@ -13660,9 +13633,9 @@
         <f>IF(I63=0,0,VLOOKUP(G63,'Industry Average Beta (Global)'!$A$2:$M$95,13))</f>
         <v>0</v>
       </c>
-      <c r="M63" s="672"/>
-      <c r="N63" s="672"/>
-      <c r="O63" s="672"/>
+      <c r="M63" s="673"/>
+      <c r="N63" s="673"/>
+      <c r="O63" s="673"/>
     </row>
     <row r="64" spans="1:15" ht="13.8" thickBot="1">
       <c r="G64" s="89" t="s">
@@ -13685,19 +13658,19 @@
         <f>L52*(J52/J64)+L53*J53/J64+L54*J54/J64+L55*J55/J64+L56*J56/J64+L57*J57/J64+L58*J58/J64+L59*J59/J64+L60*J60/J64+L61*J61/J64+L62*J62/J64+L63*J63/J64</f>
         <v>0.10952076242670084</v>
       </c>
-      <c r="M64" s="672"/>
-      <c r="N64" s="672"/>
-      <c r="O64" s="672"/>
+      <c r="M64" s="673"/>
+      <c r="N64" s="673"/>
+      <c r="O64" s="673"/>
     </row>
     <row r="65" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A65" s="679" t="s">
+      <c r="A65" s="680" t="s">
         <v>725</v>
       </c>
-      <c r="B65" s="680"/>
-      <c r="C65" s="680"/>
-      <c r="D65" s="680"/>
-      <c r="E65" s="680"/>
-      <c r="F65" s="681"/>
+      <c r="B65" s="681"/>
+      <c r="C65" s="681"/>
+      <c r="D65" s="681"/>
+      <c r="E65" s="681"/>
+      <c r="F65" s="682"/>
     </row>
     <row r="66" spans="1:6" ht="13.8" thickBot="1">
       <c r="A66" s="6" t="s">
@@ -13718,14 +13691,14 @@
     </row>
     <row r="68" spans="1:6" ht="12" thickBot="1"/>
     <row r="69" spans="1:6" ht="16.2" thickBot="1">
-      <c r="A69" s="679" t="s">
+      <c r="A69" s="680" t="s">
         <v>728</v>
       </c>
-      <c r="B69" s="682"/>
-      <c r="C69" s="680"/>
-      <c r="D69" s="680"/>
-      <c r="E69" s="680"/>
-      <c r="F69" s="681"/>
+      <c r="B69" s="683"/>
+      <c r="C69" s="681"/>
+      <c r="D69" s="681"/>
+      <c r="E69" s="681"/>
+      <c r="F69" s="682"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
@@ -13898,22 +13871,22 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="661" t="s">
+      <c r="A80" s="662" t="s">
         <v>740</v>
       </c>
-      <c r="B80" s="662"/>
-      <c r="C80" s="662"/>
-      <c r="D80" s="662"/>
-      <c r="E80" s="662"/>
-      <c r="F80" s="662"/>
+      <c r="B80" s="663"/>
+      <c r="C80" s="663"/>
+      <c r="D80" s="663"/>
+      <c r="E80" s="663"/>
+      <c r="F80" s="663"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="662"/>
-      <c r="B81" s="662"/>
-      <c r="C81" s="662"/>
-      <c r="D81" s="662"/>
-      <c r="E81" s="662"/>
-      <c r="F81" s="662"/>
+      <c r="A81" s="663"/>
+      <c r="B81" s="663"/>
+      <c r="C81" s="663"/>
+      <c r="D81" s="663"/>
+      <c r="E81" s="663"/>
+      <c r="F81" s="663"/>
     </row>
     <row r="84" spans="1:6">
       <c r="B84" s="401"/>
@@ -14076,19 +14049,19 @@
     </row>
     <row r="3" spans="1:11" ht="12" thickBot="1"/>
     <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="683" t="s">
+      <c r="A4" s="684" t="s">
         <v>620</v>
       </c>
-      <c r="B4" s="684"/>
-      <c r="C4" s="684"/>
-      <c r="D4" s="684"/>
-      <c r="E4" s="684"/>
-      <c r="F4" s="684"/>
-      <c r="G4" s="684"/>
-      <c r="H4" s="684"/>
-      <c r="I4" s="684"/>
-      <c r="J4" s="684"/>
-      <c r="K4" s="685"/>
+      <c r="B4" s="685"/>
+      <c r="C4" s="685"/>
+      <c r="D4" s="685"/>
+      <c r="E4" s="685"/>
+      <c r="F4" s="685"/>
+      <c r="G4" s="685"/>
+      <c r="H4" s="685"/>
+      <c r="I4" s="685"/>
+      <c r="J4" s="685"/>
+      <c r="K4" s="686"/>
     </row>
     <row r="5" spans="1:11" ht="15.6">
       <c r="A5" s="158" t="s">
@@ -14381,18 +14354,18 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="O17" s="689" t="s">
+      <c r="O17" s="690" t="s">
         <v>769</v>
       </c>
-      <c r="P17" s="689"/>
-      <c r="Q17" s="689"/>
-      <c r="R17" s="689"/>
-      <c r="S17" s="689"/>
-      <c r="T17" s="689"/>
-      <c r="U17" s="689"/>
-      <c r="V17" s="689"/>
-      <c r="W17" s="689"/>
-      <c r="X17" s="689"/>
+      <c r="P17" s="690"/>
+      <c r="Q17" s="690"/>
+      <c r="R17" s="690"/>
+      <c r="S17" s="690"/>
+      <c r="T17" s="690"/>
+      <c r="U17" s="690"/>
+      <c r="V17" s="690"/>
+      <c r="W17" s="690"/>
+      <c r="X17" s="690"/>
     </row>
     <row r="18" spans="1:24" ht="15.6">
       <c r="A18" s="233"/>
@@ -14459,7 +14432,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.9" customHeight="1">
-      <c r="A19" s="686" t="s">
+      <c r="A19" s="687" t="s">
         <v>762</v>
       </c>
       <c r="B19" s="238">
@@ -14540,7 +14513,7 @@
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.6">
-      <c r="A20" s="687"/>
+      <c r="A20" s="688"/>
       <c r="B20" s="238">
         <v>1</v>
       </c>
@@ -14619,7 +14592,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.6">
-      <c r="A21" s="687"/>
+      <c r="A21" s="688"/>
       <c r="B21" s="238">
         <v>2</v>
       </c>
@@ -14698,7 +14671,7 @@
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.6">
-      <c r="A22" s="687"/>
+      <c r="A22" s="688"/>
       <c r="B22" s="238">
         <v>3</v>
       </c>
@@ -14777,7 +14750,7 @@
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.6">
-      <c r="A23" s="687"/>
+      <c r="A23" s="688"/>
       <c r="B23" s="238">
         <v>4</v>
       </c>
@@ -14856,7 +14829,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="15.6">
-      <c r="A24" s="687"/>
+      <c r="A24" s="688"/>
       <c r="B24" s="238">
         <v>5</v>
       </c>
@@ -14935,7 +14908,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.6">
-      <c r="A25" s="687"/>
+      <c r="A25" s="688"/>
       <c r="B25" s="238">
         <v>6</v>
       </c>
@@ -15014,7 +14987,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="15.6">
-      <c r="A26" s="687"/>
+      <c r="A26" s="688"/>
       <c r="B26" s="238">
         <v>7</v>
       </c>
@@ -15093,7 +15066,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15.6">
-      <c r="A27" s="687"/>
+      <c r="A27" s="688"/>
       <c r="B27" s="238">
         <v>8</v>
       </c>
@@ -15172,7 +15145,7 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15.6">
-      <c r="A28" s="688"/>
+      <c r="A28" s="689"/>
       <c r="B28" s="238">
         <v>9</v>
       </c>
@@ -36464,34 +36437,34 @@
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15.6">
       <c r="A1" s="347"/>
       <c r="B1" s="151"/>
-      <c r="C1" s="690" t="s">
+      <c r="C1" s="691" t="s">
         <v>821</v>
       </c>
-      <c r="D1" s="690"/>
-      <c r="E1" s="690"/>
-      <c r="F1" s="690" t="s">
+      <c r="D1" s="691"/>
+      <c r="E1" s="691"/>
+      <c r="F1" s="691" t="s">
         <v>822</v>
       </c>
-      <c r="G1" s="690"/>
-      <c r="H1" s="690"/>
-      <c r="I1" s="691" t="s">
+      <c r="G1" s="691"/>
+      <c r="H1" s="691"/>
+      <c r="I1" s="692" t="s">
         <v>823</v>
       </c>
-      <c r="J1" s="691"/>
-      <c r="K1" s="691"/>
-      <c r="L1" s="690" t="s">
+      <c r="J1" s="692"/>
+      <c r="K1" s="692"/>
+      <c r="L1" s="691" t="s">
         <v>534</v>
       </c>
-      <c r="M1" s="690"/>
-      <c r="N1" s="690"/>
+      <c r="M1" s="691"/>
+      <c r="N1" s="691"/>
       <c r="O1" s="151" t="s">
         <v>447</v>
       </c>
-      <c r="P1" s="690" t="s">
+      <c r="P1" s="691" t="s">
         <v>824</v>
       </c>
-      <c r="Q1" s="690"/>
-      <c r="R1" s="690"/>
+      <c r="Q1" s="691"/>
+      <c r="R1" s="691"/>
     </row>
     <row r="2" spans="1:20" ht="31.2">
       <c r="A2" s="345" t="s">
@@ -42448,38 +42421,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="693" t="s">
+      <c r="A1" s="694" t="s">
         <v>899</v>
       </c>
-      <c r="B1" s="694"/>
-      <c r="C1" s="694"/>
-      <c r="D1" s="694"/>
-      <c r="E1" s="694"/>
-      <c r="F1" s="695"/>
+      <c r="B1" s="695"/>
+      <c r="C1" s="695"/>
+      <c r="D1" s="695"/>
+      <c r="E1" s="695"/>
+      <c r="F1" s="696"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="696"/>
-      <c r="B2" s="697"/>
-      <c r="C2" s="697"/>
-      <c r="D2" s="697"/>
-      <c r="E2" s="697"/>
-      <c r="F2" s="698"/>
+      <c r="A2" s="697"/>
+      <c r="B2" s="698"/>
+      <c r="C2" s="698"/>
+      <c r="D2" s="698"/>
+      <c r="E2" s="698"/>
+      <c r="F2" s="699"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="696"/>
-      <c r="B3" s="697"/>
-      <c r="C3" s="697"/>
-      <c r="D3" s="697"/>
-      <c r="E3" s="697"/>
-      <c r="F3" s="698"/>
+      <c r="A3" s="697"/>
+      <c r="B3" s="698"/>
+      <c r="C3" s="698"/>
+      <c r="D3" s="698"/>
+      <c r="E3" s="698"/>
+      <c r="F3" s="699"/>
     </row>
     <row r="4" spans="1:6" ht="12" thickBot="1">
-      <c r="A4" s="699"/>
-      <c r="B4" s="700"/>
-      <c r="C4" s="700"/>
-      <c r="D4" s="700"/>
-      <c r="E4" s="700"/>
-      <c r="F4" s="701"/>
+      <c r="A4" s="700"/>
+      <c r="B4" s="701"/>
+      <c r="C4" s="701"/>
+      <c r="D4" s="701"/>
+      <c r="E4" s="701"/>
+      <c r="F4" s="702"/>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="80" t="s">
@@ -42715,7 +42688,7 @@
       <c r="B23" s="143">
         <v>139.4</v>
       </c>
-      <c r="C23" s="692" t="s">
+      <c r="C23" s="693" t="s">
         <v>531</v>
       </c>
       <c r="D23" s="99" t="s">
@@ -42730,7 +42703,7 @@
       <c r="B24" s="143">
         <v>145.18</v>
       </c>
-      <c r="C24" s="692"/>
+      <c r="C24" s="693"/>
       <c r="D24" s="99" t="s">
         <v>88</v>
       </c>
@@ -42743,7 +42716,7 @@
       <c r="B25" s="143">
         <v>156.53</v>
       </c>
-      <c r="C25" s="692"/>
+      <c r="C25" s="693"/>
       <c r="D25" s="99" t="s">
         <v>88</v>
       </c>
@@ -42756,7 +42729,7 @@
       <c r="B26" s="143">
         <v>151.19999999999999</v>
       </c>
-      <c r="C26" s="692"/>
+      <c r="C26" s="693"/>
       <c r="D26" s="99" t="s">
         <v>88</v>
       </c>
@@ -42769,7 +42742,7 @@
       <c r="B27" s="142">
         <v>943.63</v>
       </c>
-      <c r="C27" s="692"/>
+      <c r="C27" s="693"/>
       <c r="D27" s="99" t="s">
         <v>88</v>
       </c>
@@ -42777,7 +42750,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="94"/>
-      <c r="C28" s="692"/>
+      <c r="C28" s="693"/>
     </row>
     <row r="30" spans="1:5" ht="12.6">
       <c r="A30" s="35" t="s">
@@ -42907,7 +42880,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -44305,7 +44278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC10BD42-3E34-4922-8973-7690BE8126D7}">
   <dimension ref="A1:CO83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A34" sqref="A34"/>
       <selection pane="topRight" activeCell="R40" sqref="R40"/>
@@ -44490,10 +44463,10 @@
       </c>
     </row>
     <row r="3" spans="1:57">
-      <c r="A3" s="553" t="s">
+      <c r="A3" s="554" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="553"/>
+      <c r="B3" s="554"/>
       <c r="C3" s="507">
         <v>120.46899999999999</v>
       </c>
@@ -44598,10 +44571,10 @@
       <c r="BE3" s="507"/>
     </row>
     <row r="4" spans="1:57">
-      <c r="A4" s="553" t="s">
+      <c r="A4" s="554" t="s">
         <v>1035</v>
       </c>
-      <c r="B4" s="553"/>
+      <c r="B4" s="554"/>
       <c r="C4" s="507">
         <v>145.36000000000001</v>
       </c>
@@ -44706,10 +44679,10 @@
       <c r="BE4" s="507"/>
     </row>
     <row r="5" spans="1:57">
-      <c r="A5" s="553" t="s">
+      <c r="A5" s="554" t="s">
         <v>1036</v>
       </c>
-      <c r="B5" s="553"/>
+      <c r="B5" s="554"/>
       <c r="C5" s="507">
         <v>60.850999999999999</v>
       </c>
@@ -44814,10 +44787,10 @@
       <c r="BE5" s="507"/>
     </row>
     <row r="6" spans="1:57">
-      <c r="A6" s="553" t="s">
+      <c r="A6" s="554" t="s">
         <v>1037</v>
       </c>
-      <c r="B6" s="553"/>
+      <c r="B6" s="554"/>
       <c r="C6" s="507">
         <v>46.048000000000002</v>
       </c>
@@ -44922,10 +44895,10 @@
       <c r="BE6" s="507"/>
     </row>
     <row r="7" spans="1:57">
-      <c r="A7" s="553" t="s">
+      <c r="A7" s="554" t="s">
         <v>1038</v>
       </c>
-      <c r="B7" s="553"/>
+      <c r="B7" s="554"/>
       <c r="C7" s="507">
         <v>181.90299999999999</v>
       </c>
@@ -45030,10 +45003,10 @@
       <c r="BE7" s="507"/>
     </row>
     <row r="8" spans="1:57">
-      <c r="A8" s="553" t="s">
+      <c r="A8" s="554" t="s">
         <v>1039</v>
       </c>
-      <c r="B8" s="553"/>
+      <c r="B8" s="554"/>
       <c r="C8" s="507">
         <v>130.07400000000001</v>
       </c>
@@ -45139,10 +45112,10 @@
       <c r="BE8" s="507"/>
     </row>
     <row r="9" spans="1:57">
-      <c r="A9" s="553" t="s">
+      <c r="A9" s="554" t="s">
         <v>1040</v>
       </c>
-      <c r="B9" s="553"/>
+      <c r="B9" s="554"/>
       <c r="C9" s="507">
         <v>29.009</v>
       </c>
@@ -45247,10 +45220,10 @@
       <c r="BE9" s="507"/>
     </row>
     <row r="10" spans="1:57">
-      <c r="A10" s="553" t="s">
+      <c r="A10" s="554" t="s">
         <v>1041</v>
       </c>
-      <c r="B10" s="553"/>
+      <c r="B10" s="554"/>
       <c r="C10" s="507">
         <v>71.364999999999995</v>
       </c>
@@ -45444,10 +45417,10 @@
       <c r="BE11" s="507"/>
     </row>
     <row r="12" spans="1:57">
-      <c r="A12" s="553" t="s">
+      <c r="A12" s="554" t="s">
         <v>1043</v>
       </c>
-      <c r="B12" s="553"/>
+      <c r="B12" s="554"/>
       <c r="C12" s="507">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -45550,10 +45523,10 @@
       <c r="BE12" s="507"/>
     </row>
     <row r="13" spans="1:57">
-      <c r="A13" s="554" t="s">
+      <c r="A13" s="556" t="s">
         <v>845</v>
       </c>
-      <c r="B13" s="554"/>
+      <c r="B13" s="556"/>
       <c r="C13" s="511">
         <f t="shared" ref="C13:O13" si="4">SUM(C3:C12)</f>
         <v>791.89399999999989</v>
@@ -45688,10 +45661,10 @@
       <c r="BE13" s="507"/>
     </row>
     <row r="14" spans="1:57">
-      <c r="A14" s="553" t="s">
+      <c r="A14" s="554" t="s">
         <v>1044</v>
       </c>
-      <c r="B14" s="553"/>
+      <c r="B14" s="554"/>
       <c r="C14" s="507">
         <v>482.63799999999998</v>
       </c>
@@ -45807,10 +45780,10 @@
       <c r="BE14" s="507"/>
     </row>
     <row r="15" spans="1:57">
-      <c r="A15" s="553" t="s">
+      <c r="A15" s="554" t="s">
         <v>1045</v>
       </c>
-      <c r="B15" s="553"/>
+      <c r="B15" s="554"/>
       <c r="C15" s="507">
         <v>3.5230000000000001</v>
       </c>
@@ -45926,10 +45899,10 @@
       <c r="BE15" s="507"/>
     </row>
     <row r="16" spans="1:57">
-      <c r="A16" s="553" t="s">
+      <c r="A16" s="554" t="s">
         <v>1046</v>
       </c>
-      <c r="B16" s="553"/>
+      <c r="B16" s="554"/>
       <c r="C16" s="508">
         <f t="shared" ref="C16:N16" si="5">C13-C14-C15</f>
         <v>305.73299999999989</v>
@@ -46066,10 +46039,10 @@
       <c r="BE16" s="507"/>
     </row>
     <row r="17" spans="1:93">
-      <c r="A17" s="553" t="s">
+      <c r="A17" s="554" t="s">
         <v>1047</v>
       </c>
-      <c r="B17" s="553"/>
+      <c r="B17" s="554"/>
       <c r="C17" s="507">
         <v>133.238</v>
       </c>
@@ -46185,10 +46158,10 @@
       <c r="BE17" s="507"/>
     </row>
     <row r="18" spans="1:93">
-      <c r="A18" s="553" t="s">
+      <c r="A18" s="554" t="s">
         <v>1048</v>
       </c>
-      <c r="B18" s="553"/>
+      <c r="B18" s="554"/>
       <c r="C18" s="507">
         <v>49.725000000000001</v>
       </c>
@@ -46304,10 +46277,10 @@
       <c r="BE18" s="507"/>
     </row>
     <row r="19" spans="1:93">
-      <c r="A19" s="553" t="s">
+      <c r="A19" s="554" t="s">
         <v>590</v>
       </c>
-      <c r="B19" s="553"/>
+      <c r="B19" s="554"/>
       <c r="C19" s="507">
         <v>29.071000000000002</v>
       </c>
@@ -46423,10 +46396,10 @@
       <c r="BE19" s="507"/>
     </row>
     <row r="20" spans="1:93">
-      <c r="A20" s="554" t="s">
+      <c r="A20" s="556" t="s">
         <v>1049</v>
       </c>
-      <c r="B20" s="554"/>
+      <c r="B20" s="556"/>
       <c r="C20" s="511">
         <f>SUM(C17:C19)+4.609-0.053</f>
         <v>216.59</v>
@@ -46565,10 +46538,10 @@
       <c r="BE20" s="507"/>
     </row>
     <row r="21" spans="1:93">
-      <c r="A21" s="554" t="s">
+      <c r="A21" s="556" t="s">
         <v>846</v>
       </c>
-      <c r="B21" s="554"/>
+      <c r="B21" s="556"/>
       <c r="C21" s="511">
         <f t="shared" ref="C21:S21" si="7">C16-C20</f>
         <v>89.142999999999887</v>
@@ -46707,10 +46680,10 @@
       <c r="BE21" s="507"/>
     </row>
     <row r="22" spans="1:93">
-      <c r="A22" s="553" t="s">
+      <c r="A22" s="554" t="s">
         <v>1050</v>
       </c>
-      <c r="B22" s="553"/>
+      <c r="B22" s="554"/>
       <c r="C22" s="507">
         <f>0.62+2.029</f>
         <v>2.649</v>
@@ -46763,7 +46736,7 @@
         <f>9.826-12.972</f>
         <v>-3.145999999999999</v>
       </c>
-      <c r="P22" s="702">
+      <c r="P22" s="529">
         <f>11.856-1.044</f>
         <v>10.811999999999999</v>
       </c>
@@ -46848,10 +46821,10 @@
       <c r="BE22" s="507"/>
     </row>
     <row r="23" spans="1:93">
-      <c r="A23" s="554" t="s">
+      <c r="A23" s="556" t="s">
         <v>1051</v>
       </c>
-      <c r="B23" s="554"/>
+      <c r="B23" s="556"/>
       <c r="C23" s="511">
         <f t="shared" ref="C23:P23" si="8">C21+C22</f>
         <v>91.791999999999888</v>
@@ -46990,10 +46963,10 @@
       <c r="BE23" s="507"/>
     </row>
     <row r="24" spans="1:93">
-      <c r="A24" s="553" t="s">
+      <c r="A24" s="554" t="s">
         <v>1052</v>
       </c>
-      <c r="B24" s="553"/>
+      <c r="B24" s="554"/>
       <c r="C24" s="507">
         <v>14.003</v>
       </c>
@@ -47109,10 +47082,10 @@
       <c r="BE24" s="507"/>
     </row>
     <row r="25" spans="1:93">
-      <c r="A25" s="554" t="s">
+      <c r="A25" s="556" t="s">
         <v>1053</v>
       </c>
-      <c r="B25" s="554"/>
+      <c r="B25" s="556"/>
       <c r="C25" s="511">
         <f t="shared" ref="C25:N25" si="9">C23-C24</f>
         <v>77.788999999999888</v>
@@ -47462,10 +47435,10 @@
       </c>
     </row>
     <row r="26" spans="1:93">
-      <c r="A26" s="553" t="s">
+      <c r="A26" s="554" t="s">
         <v>1054</v>
       </c>
-      <c r="B26" s="553"/>
+      <c r="B26" s="554"/>
       <c r="C26" s="515">
         <f t="shared" ref="C26:S26" si="12">C25/C27</f>
         <v>0.45724076719156798</v>
@@ -47812,10 +47785,10 @@
       </c>
     </row>
     <row r="27" spans="1:93">
-      <c r="A27" s="553" t="s">
+      <c r="A27" s="554" t="s">
         <v>1055</v>
       </c>
-      <c r="B27" s="553"/>
+      <c r="B27" s="554"/>
       <c r="C27" s="519">
         <v>170.12700000000001</v>
       </c>
@@ -48529,7 +48502,7 @@
         <v>1066</v>
       </c>
       <c r="AN34" s="514">
-        <f>AN33/[1]main!W1-1</f>
+        <f>AN33/#REF!-1</f>
         <v>0.23533270297515019</v>
       </c>
     </row>
@@ -49577,12 +49550,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -49595,14 +49570,12 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="main!A1" display="main" xr:uid="{339AB999-1533-4428-9A52-1FE49A7B46BC}"/>
@@ -49617,8 +49590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="15.6"/>
@@ -50415,11 +50388,11 @@
         <f>IF('Input sheet'!B70="YES",'Input sheet'!B18-'Input sheet'!B71*('Input sheet'!B24-'Input sheet'!B72),'Input sheet'!B18)</f>
         <v>1534.38</v>
       </c>
-      <c r="D27" s="556" t="s">
+      <c r="D27" s="557" t="s">
         <v>979</v>
       </c>
-      <c r="E27" s="556"/>
-      <c r="F27" s="556"/>
+      <c r="E27" s="557"/>
+      <c r="F27" s="557"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="30" t="s">
@@ -50429,9 +50402,9 @@
         <f>'Input sheet'!B19</f>
         <v>33.323</v>
       </c>
-      <c r="D28" s="556"/>
-      <c r="E28" s="556"/>
-      <c r="F28" s="556"/>
+      <c r="D28" s="557"/>
+      <c r="E28" s="557"/>
+      <c r="F28" s="557"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="30" t="s">
@@ -50441,9 +50414,9 @@
         <f>B24-B25-B26+B27+B28</f>
         <v>10393.463355685344</v>
       </c>
-      <c r="D29" s="556"/>
-      <c r="E29" s="556"/>
-      <c r="F29" s="556"/>
+      <c r="D29" s="557"/>
+      <c r="E29" s="557"/>
+      <c r="F29" s="557"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="30" t="s">
@@ -50453,9 +50426,9 @@
         <f ca="1">IF('Input sheet'!B37="No",0,'Option value'!B29)</f>
         <v>163.82761362615619</v>
       </c>
-      <c r="D30" s="556"/>
-      <c r="E30" s="556"/>
-      <c r="F30" s="556"/>
+      <c r="D30" s="557"/>
+      <c r="E30" s="557"/>
+      <c r="F30" s="557"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="30" t="s">
@@ -50465,9 +50438,9 @@
         <f ca="1">B29-B30</f>
         <v>10229.635742059188</v>
       </c>
-      <c r="D31" s="556"/>
-      <c r="E31" s="556"/>
-      <c r="F31" s="556"/>
+      <c r="D31" s="557"/>
+      <c r="E31" s="557"/>
+      <c r="F31" s="557"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="30" t="s">
@@ -50477,9 +50450,9 @@
         <f>'Input sheet'!B21</f>
         <v>154.97800000000001</v>
       </c>
-      <c r="D32" s="556"/>
-      <c r="E32" s="556"/>
-      <c r="F32" s="556"/>
+      <c r="D32" s="557"/>
+      <c r="E32" s="557"/>
+      <c r="F32" s="557"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="30" t="s">
@@ -50711,97 +50684,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="563" t="str">
+      <c r="A1" s="558" t="str">
         <f>'Input sheet'!B4</f>
         <v>Logitech</v>
       </c>
-      <c r="B1" s="564"/>
-      <c r="C1" s="564"/>
-      <c r="D1" s="564"/>
-      <c r="E1" s="564"/>
-      <c r="F1" s="565"/>
+      <c r="B1" s="559"/>
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
+      <c r="F1" s="560"/>
       <c r="G1" s="152">
         <f>'Input sheet'!B3</f>
         <v>43935</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="608" t="s">
+      <c r="A2" s="605" t="s">
         <v>630</v>
       </c>
-      <c r="B2" s="608"/>
-      <c r="C2" s="608"/>
-      <c r="D2" s="608"/>
-      <c r="E2" s="608"/>
-      <c r="F2" s="608"/>
-      <c r="G2" s="608"/>
+      <c r="B2" s="605"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="605"/>
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
     </row>
     <row r="3" spans="1:11" ht="15.9" customHeight="1">
-      <c r="A3" s="568" t="s">
+      <c r="A3" s="565" t="s">
         <v>631</v>
       </c>
-      <c r="B3" s="569"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="569"/>
-      <c r="F3" s="569"/>
-      <c r="G3" s="570"/>
-      <c r="H3" s="577" t="s">
+      <c r="B3" s="566"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="566"/>
+      <c r="F3" s="566"/>
+      <c r="G3" s="567"/>
+      <c r="H3" s="574" t="s">
         <v>522</v>
       </c>
-      <c r="I3" s="578"/>
-      <c r="J3" s="578"/>
-      <c r="K3" s="579"/>
+      <c r="I3" s="575"/>
+      <c r="J3" s="575"/>
+      <c r="K3" s="576"/>
     </row>
     <row r="4" spans="1:11" ht="15.9" customHeight="1">
-      <c r="A4" s="571"/>
-      <c r="B4" s="572"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="572"/>
-      <c r="E4" s="572"/>
-      <c r="F4" s="572"/>
-      <c r="G4" s="573"/>
-      <c r="H4" s="580"/>
-      <c r="I4" s="581"/>
-      <c r="J4" s="581"/>
-      <c r="K4" s="582"/>
+      <c r="A4" s="568"/>
+      <c r="B4" s="569"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="569"/>
+      <c r="E4" s="569"/>
+      <c r="F4" s="569"/>
+      <c r="G4" s="570"/>
+      <c r="H4" s="577"/>
+      <c r="I4" s="578"/>
+      <c r="J4" s="578"/>
+      <c r="K4" s="579"/>
     </row>
     <row r="5" spans="1:11" ht="12" customHeight="1">
-      <c r="A5" s="571"/>
-      <c r="B5" s="572"/>
-      <c r="C5" s="572"/>
-      <c r="D5" s="572"/>
-      <c r="E5" s="572"/>
-      <c r="F5" s="572"/>
-      <c r="G5" s="573"/>
-      <c r="H5" s="580"/>
-      <c r="I5" s="581"/>
-      <c r="J5" s="581"/>
-      <c r="K5" s="582"/>
+      <c r="A5" s="568"/>
+      <c r="B5" s="569"/>
+      <c r="C5" s="569"/>
+      <c r="D5" s="569"/>
+      <c r="E5" s="569"/>
+      <c r="F5" s="569"/>
+      <c r="G5" s="570"/>
+      <c r="H5" s="577"/>
+      <c r="I5" s="578"/>
+      <c r="J5" s="578"/>
+      <c r="K5" s="579"/>
     </row>
     <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="574"/>
-      <c r="B6" s="575"/>
-      <c r="C6" s="575"/>
-      <c r="D6" s="575"/>
-      <c r="E6" s="575"/>
-      <c r="F6" s="575"/>
-      <c r="G6" s="576"/>
-      <c r="H6" s="583"/>
-      <c r="I6" s="584"/>
-      <c r="J6" s="584"/>
-      <c r="K6" s="585"/>
+      <c r="A6" s="571"/>
+      <c r="B6" s="572"/>
+      <c r="C6" s="572"/>
+      <c r="D6" s="572"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="572"/>
+      <c r="G6" s="573"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="581"/>
+      <c r="J6" s="581"/>
+      <c r="K6" s="582"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="609" t="s">
+      <c r="A7" s="606" t="s">
         <v>502</v>
       </c>
-      <c r="B7" s="610"/>
-      <c r="C7" s="610"/>
-      <c r="D7" s="610"/>
-      <c r="E7" s="610"/>
-      <c r="F7" s="610"/>
-      <c r="G7" s="611"/>
+      <c r="B7" s="607"/>
+      <c r="C7" s="607"/>
+      <c r="D7" s="607"/>
+      <c r="E7" s="607"/>
+      <c r="F7" s="607"/>
+      <c r="G7" s="608"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="115"/>
@@ -50850,12 +50823,12 @@
       <c r="G9" s="242" t="s">
         <v>632</v>
       </c>
-      <c r="H9" s="586" t="s">
+      <c r="H9" s="583" t="s">
         <v>523</v>
       </c>
-      <c r="I9" s="587"/>
-      <c r="J9" s="587"/>
-      <c r="K9" s="588"/>
+      <c r="I9" s="584"/>
+      <c r="J9" s="584"/>
+      <c r="K9" s="585"/>
     </row>
     <row r="10" spans="1:11" ht="46.8">
       <c r="A10" s="116" t="s">
@@ -50883,10 +50856,10 @@
       <c r="G10" s="243" t="s">
         <v>633</v>
       </c>
-      <c r="H10" s="589"/>
-      <c r="I10" s="590"/>
-      <c r="J10" s="590"/>
-      <c r="K10" s="591"/>
+      <c r="H10" s="586"/>
+      <c r="I10" s="587"/>
+      <c r="J10" s="587"/>
+      <c r="K10" s="588"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="116" t="s">
@@ -50911,10 +50884,10 @@
       <c r="G11" s="244" t="s">
         <v>634</v>
       </c>
-      <c r="H11" s="589"/>
-      <c r="I11" s="590"/>
-      <c r="J11" s="590"/>
-      <c r="K11" s="591"/>
+      <c r="H11" s="586"/>
+      <c r="I11" s="587"/>
+      <c r="J11" s="587"/>
+      <c r="K11" s="588"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="116" t="s">
@@ -50940,10 +50913,10 @@
       <c r="G12" s="244" t="s">
         <v>835</v>
       </c>
-      <c r="H12" s="589"/>
-      <c r="I12" s="590"/>
-      <c r="J12" s="590"/>
-      <c r="K12" s="591"/>
+      <c r="H12" s="586"/>
+      <c r="I12" s="587"/>
+      <c r="J12" s="587"/>
+      <c r="K12" s="588"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="133" t="s">
@@ -50956,11 +50929,11 @@
       <c r="C13" s="117" t="s">
         <v>526</v>
       </c>
-      <c r="D13" s="606">
+      <c r="D13" s="603">
         <f>Diagnostics!C27</f>
         <v>0.17122609861946594</v>
       </c>
-      <c r="E13" s="607"/>
+      <c r="E13" s="604"/>
       <c r="F13" s="134">
         <f>'Valuation output'!M40</f>
         <v>8.965999999999999E-2</v>
@@ -50968,10 +50941,10 @@
       <c r="G13" s="245" t="s">
         <v>836</v>
       </c>
-      <c r="H13" s="589"/>
-      <c r="I13" s="590"/>
-      <c r="J13" s="590"/>
-      <c r="K13" s="591"/>
+      <c r="H13" s="586"/>
+      <c r="I13" s="587"/>
+      <c r="J13" s="587"/>
+      <c r="K13" s="588"/>
     </row>
     <row r="14" spans="1:11" ht="16.2" thickBot="1">
       <c r="A14" s="120" t="s">
@@ -50991,21 +50964,21 @@
       <c r="G14" s="246" t="s">
         <v>635</v>
       </c>
-      <c r="H14" s="592"/>
-      <c r="I14" s="593"/>
-      <c r="J14" s="593"/>
-      <c r="K14" s="594"/>
+      <c r="H14" s="589"/>
+      <c r="I14" s="590"/>
+      <c r="J14" s="590"/>
+      <c r="K14" s="591"/>
     </row>
     <row r="15" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A15" s="612" t="s">
+      <c r="A15" s="609" t="s">
         <v>506</v>
       </c>
-      <c r="B15" s="612"/>
-      <c r="C15" s="612"/>
-      <c r="D15" s="612"/>
-      <c r="E15" s="612"/>
-      <c r="F15" s="612"/>
-      <c r="G15" s="612"/>
+      <c r="B15" s="609"/>
+      <c r="C15" s="609"/>
+      <c r="D15" s="609"/>
+      <c r="E15" s="609"/>
+      <c r="F15" s="609"/>
+      <c r="G15" s="609"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="111"/>
@@ -51027,12 +51000,12 @@
       <c r="G16" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="595" t="s">
+      <c r="H16" s="592" t="s">
         <v>524</v>
       </c>
-      <c r="I16" s="596"/>
-      <c r="J16" s="596"/>
-      <c r="K16" s="597"/>
+      <c r="I16" s="593"/>
+      <c r="J16" s="593"/>
+      <c r="K16" s="594"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="122">
@@ -51062,10 +51035,10 @@
         <f>E17-F17</f>
         <v>285.54190591666685</v>
       </c>
-      <c r="H17" s="598"/>
-      <c r="I17" s="599"/>
-      <c r="J17" s="599"/>
-      <c r="K17" s="600"/>
+      <c r="H17" s="595"/>
+      <c r="I17" s="596"/>
+      <c r="J17" s="596"/>
+      <c r="K17" s="597"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="122">
@@ -51095,10 +51068,10 @@
         <f t="shared" ref="G18:G27" si="1">E18-F18</f>
         <v>366.2059574270167</v>
       </c>
-      <c r="H18" s="598"/>
-      <c r="I18" s="599"/>
-      <c r="J18" s="599"/>
-      <c r="K18" s="600"/>
+      <c r="H18" s="595"/>
+      <c r="I18" s="596"/>
+      <c r="J18" s="596"/>
+      <c r="K18" s="597"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="122">
@@ -51128,10 +51101,10 @@
         <f t="shared" si="1"/>
         <v>429.83349102087402</v>
       </c>
-      <c r="H19" s="598"/>
-      <c r="I19" s="599"/>
-      <c r="J19" s="599"/>
-      <c r="K19" s="600"/>
+      <c r="H19" s="595"/>
+      <c r="I19" s="596"/>
+      <c r="J19" s="596"/>
+      <c r="K19" s="597"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="122">
@@ -51161,10 +51134,10 @@
         <f t="shared" si="1"/>
         <v>502.12843053740215</v>
       </c>
-      <c r="H20" s="598"/>
-      <c r="I20" s="599"/>
-      <c r="J20" s="599"/>
-      <c r="K20" s="600"/>
+      <c r="H20" s="595"/>
+      <c r="I20" s="596"/>
+      <c r="J20" s="596"/>
+      <c r="K20" s="597"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="122">
@@ -51194,10 +51167,10 @@
         <f t="shared" si="1"/>
         <v>620.04835284605406</v>
       </c>
-      <c r="H21" s="598"/>
-      <c r="I21" s="599"/>
-      <c r="J21" s="599"/>
-      <c r="K21" s="600"/>
+      <c r="H21" s="595"/>
+      <c r="I21" s="596"/>
+      <c r="J21" s="596"/>
+      <c r="K21" s="597"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="122">
@@ -51227,10 +51200,10 @@
         <f t="shared" si="1"/>
         <v>624.80292969523543</v>
       </c>
-      <c r="H22" s="598"/>
-      <c r="I22" s="599"/>
-      <c r="J22" s="599"/>
-      <c r="K22" s="600"/>
+      <c r="H22" s="595"/>
+      <c r="I22" s="596"/>
+      <c r="J22" s="596"/>
+      <c r="K22" s="597"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="122">
@@ -51260,10 +51233,10 @@
         <f t="shared" si="1"/>
         <v>695.5968012060705</v>
       </c>
-      <c r="H23" s="598"/>
-      <c r="I23" s="599"/>
-      <c r="J23" s="599"/>
-      <c r="K23" s="600"/>
+      <c r="H23" s="595"/>
+      <c r="I23" s="596"/>
+      <c r="J23" s="596"/>
+      <c r="K23" s="597"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="122">
@@ -51293,10 +51266,10 @@
         <f t="shared" si="1"/>
         <v>766.74796379808095</v>
       </c>
-      <c r="H24" s="598"/>
-      <c r="I24" s="599"/>
-      <c r="J24" s="599"/>
-      <c r="K24" s="600"/>
+      <c r="H24" s="595"/>
+      <c r="I24" s="596"/>
+      <c r="J24" s="596"/>
+      <c r="K24" s="597"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="122">
@@ -51326,10 +51299,10 @@
         <f t="shared" si="1"/>
         <v>836.81664587771093</v>
       </c>
-      <c r="H25" s="598"/>
-      <c r="I25" s="599"/>
-      <c r="J25" s="599"/>
-      <c r="K25" s="600"/>
+      <c r="H25" s="595"/>
+      <c r="I25" s="596"/>
+      <c r="J25" s="596"/>
+      <c r="K25" s="597"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="122">
@@ -51359,10 +51332,10 @@
         <f t="shared" si="1"/>
         <v>845.25221222328582</v>
       </c>
-      <c r="H26" s="598"/>
-      <c r="I26" s="599"/>
-      <c r="J26" s="599"/>
-      <c r="K26" s="600"/>
+      <c r="H26" s="595"/>
+      <c r="I26" s="596"/>
+      <c r="J26" s="596"/>
+      <c r="K26" s="597"/>
     </row>
     <row r="27" spans="1:11" ht="16.2" thickBot="1">
       <c r="A27" s="124" t="s">
@@ -51392,28 +51365,28 @@
         <f t="shared" si="1"/>
         <v>575.29770992509407</v>
       </c>
-      <c r="H27" s="601"/>
-      <c r="I27" s="602"/>
-      <c r="J27" s="602"/>
-      <c r="K27" s="603"/>
+      <c r="H27" s="598"/>
+      <c r="I27" s="599"/>
+      <c r="J27" s="599"/>
+      <c r="K27" s="600"/>
     </row>
     <row r="28" spans="1:11" ht="16.2" thickBot="1">
-      <c r="A28" s="612" t="s">
+      <c r="A28" s="609" t="s">
         <v>508</v>
       </c>
-      <c r="B28" s="612"/>
-      <c r="C28" s="612"/>
-      <c r="D28" s="612"/>
-      <c r="E28" s="612"/>
-      <c r="F28" s="612"/>
-      <c r="G28" s="612"/>
+      <c r="B28" s="609"/>
+      <c r="C28" s="609"/>
+      <c r="D28" s="609"/>
+      <c r="E28" s="609"/>
+      <c r="F28" s="609"/>
+      <c r="G28" s="609"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="566" t="s">
+      <c r="A29" s="563" t="s">
         <v>509</v>
       </c>
-      <c r="B29" s="567"/>
-      <c r="C29" s="567"/>
+      <c r="B29" s="564"/>
+      <c r="C29" s="564"/>
       <c r="D29" s="448">
         <f>'Valuation output'!B18</f>
         <v>13286.321245383237</v>
@@ -51421,19 +51394,19 @@
       <c r="E29" s="126"/>
       <c r="F29" s="127"/>
       <c r="G29" s="128"/>
-      <c r="H29" s="604" t="s">
+      <c r="H29" s="601" t="s">
         <v>527</v>
       </c>
-      <c r="I29" s="590"/>
-      <c r="J29" s="590"/>
-      <c r="K29" s="590"/>
+      <c r="I29" s="587"/>
+      <c r="J29" s="587"/>
+      <c r="K29" s="587"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="557" t="s">
+      <c r="A30" s="561" t="s">
         <v>510</v>
       </c>
-      <c r="B30" s="558"/>
-      <c r="C30" s="558"/>
+      <c r="B30" s="562"/>
+      <c r="C30" s="562"/>
       <c r="D30" s="448">
         <f>'Valuation output'!B19</f>
         <v>5441.4234254911971</v>
@@ -51441,17 +51414,17 @@
       <c r="E30" s="129"/>
       <c r="F30" s="130"/>
       <c r="G30" s="131"/>
-      <c r="H30" s="604"/>
-      <c r="I30" s="590"/>
-      <c r="J30" s="590"/>
-      <c r="K30" s="590"/>
+      <c r="H30" s="601"/>
+      <c r="I30" s="587"/>
+      <c r="J30" s="587"/>
+      <c r="K30" s="587"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="557" t="s">
+      <c r="A31" s="561" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="558"/>
-      <c r="C31" s="558"/>
+      <c r="B31" s="562"/>
+      <c r="C31" s="562"/>
       <c r="D31" s="448">
         <f>'Valuation output'!B20</f>
         <v>3462.2319301941475</v>
@@ -51459,17 +51432,17 @@
       <c r="E31" s="129"/>
       <c r="F31" s="130"/>
       <c r="G31" s="131"/>
-      <c r="H31" s="604"/>
-      <c r="I31" s="590"/>
-      <c r="J31" s="590"/>
-      <c r="K31" s="590"/>
+      <c r="H31" s="601"/>
+      <c r="I31" s="587"/>
+      <c r="J31" s="587"/>
+      <c r="K31" s="587"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="557" t="s">
+      <c r="A32" s="561" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="558"/>
-      <c r="C32" s="558"/>
+      <c r="B32" s="562"/>
+      <c r="C32" s="562"/>
       <c r="D32" s="448">
         <f>'Valuation output'!B21</f>
         <v>8903.6553556853451</v>
@@ -51477,40 +51450,40 @@
       <c r="E32" s="129"/>
       <c r="F32" s="130"/>
       <c r="G32" s="131"/>
-      <c r="H32" s="604"/>
-      <c r="I32" s="590"/>
-      <c r="J32" s="590"/>
-      <c r="K32" s="590"/>
+      <c r="H32" s="601"/>
+      <c r="I32" s="587"/>
+      <c r="J32" s="587"/>
+      <c r="K32" s="587"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="557" t="s">
+      <c r="A33" s="561" t="s">
         <v>518</v>
       </c>
-      <c r="B33" s="558"/>
-      <c r="C33" s="558"/>
+      <c r="B33" s="562"/>
+      <c r="C33" s="562"/>
       <c r="D33" s="448">
         <f>D32-'Valuation output'!B24</f>
         <v>0</v>
       </c>
-      <c r="E33" s="605" t="s">
+      <c r="E33" s="602" t="s">
         <v>100</v>
       </c>
-      <c r="F33" s="605"/>
+      <c r="F33" s="602"/>
       <c r="G33" s="394">
         <f>'Valuation output'!B22</f>
         <v>0</v>
       </c>
-      <c r="H33" s="590"/>
-      <c r="I33" s="590"/>
-      <c r="J33" s="590"/>
-      <c r="K33" s="590"/>
+      <c r="H33" s="587"/>
+      <c r="I33" s="587"/>
+      <c r="J33" s="587"/>
+      <c r="K33" s="587"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="557" t="s">
+      <c r="A34" s="561" t="s">
         <v>606</v>
       </c>
-      <c r="B34" s="558"/>
-      <c r="C34" s="558"/>
+      <c r="B34" s="562"/>
+      <c r="C34" s="562"/>
       <c r="D34" s="448">
         <f>'Valuation output'!B25+'Valuation output'!B26</f>
         <v>77.89500000000001</v>
@@ -51518,17 +51491,17 @@
       <c r="E34" s="129"/>
       <c r="F34" s="130"/>
       <c r="G34" s="131"/>
-      <c r="H34" s="604"/>
-      <c r="I34" s="590"/>
-      <c r="J34" s="590"/>
-      <c r="K34" s="590"/>
+      <c r="H34" s="601"/>
+      <c r="I34" s="587"/>
+      <c r="J34" s="587"/>
+      <c r="K34" s="587"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="557" t="s">
+      <c r="A35" s="561" t="s">
         <v>519</v>
       </c>
-      <c r="B35" s="558"/>
-      <c r="C35" s="558"/>
+      <c r="B35" s="562"/>
+      <c r="C35" s="562"/>
       <c r="D35" s="448">
         <f>'Valuation output'!B27+'Valuation output'!B28</f>
         <v>1567.7030000000002</v>
@@ -51536,17 +51509,17 @@
       <c r="E35" s="129"/>
       <c r="F35" s="130"/>
       <c r="G35" s="131"/>
-      <c r="H35" s="604"/>
-      <c r="I35" s="590"/>
-      <c r="J35" s="590"/>
-      <c r="K35" s="590"/>
+      <c r="H35" s="601"/>
+      <c r="I35" s="587"/>
+      <c r="J35" s="587"/>
+      <c r="K35" s="587"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="557" t="s">
+      <c r="A36" s="561" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="558"/>
-      <c r="C36" s="558"/>
+      <c r="B36" s="562"/>
+      <c r="C36" s="562"/>
       <c r="D36" s="448">
         <f>D32-D33-D34+D35</f>
         <v>10393.463355685344</v>
@@ -51554,17 +51527,17 @@
       <c r="E36" s="129"/>
       <c r="F36" s="130"/>
       <c r="G36" s="131"/>
-      <c r="H36" s="604"/>
-      <c r="I36" s="590"/>
-      <c r="J36" s="590"/>
-      <c r="K36" s="590"/>
+      <c r="H36" s="601"/>
+      <c r="I36" s="587"/>
+      <c r="J36" s="587"/>
+      <c r="K36" s="587"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="557" t="s">
+      <c r="A37" s="561" t="s">
         <v>520</v>
       </c>
-      <c r="B37" s="558"/>
-      <c r="C37" s="558"/>
+      <c r="B37" s="562"/>
+      <c r="C37" s="562"/>
       <c r="D37" s="448">
         <f ca="1">'Valuation output'!B30</f>
         <v>163.82761362615619</v>
@@ -51572,49 +51545,49 @@
       <c r="E37" s="129"/>
       <c r="F37" s="130"/>
       <c r="G37" s="131"/>
-      <c r="H37" s="604"/>
-      <c r="I37" s="590"/>
-      <c r="J37" s="590"/>
-      <c r="K37" s="590"/>
+      <c r="H37" s="601"/>
+      <c r="I37" s="587"/>
+      <c r="J37" s="587"/>
+      <c r="K37" s="587"/>
     </row>
     <row r="38" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A38" s="560" t="s">
+      <c r="A38" s="614" t="s">
         <v>516</v>
       </c>
-      <c r="B38" s="561"/>
-      <c r="C38" s="562"/>
+      <c r="B38" s="615"/>
+      <c r="C38" s="616"/>
       <c r="D38" s="449">
         <f>'Valuation output'!B32</f>
         <v>154.97800000000001</v>
       </c>
       <c r="G38" s="131"/>
-      <c r="H38" s="604"/>
-      <c r="I38" s="590"/>
-      <c r="J38" s="590"/>
-      <c r="K38" s="590"/>
+      <c r="H38" s="601"/>
+      <c r="I38" s="587"/>
+      <c r="J38" s="587"/>
+      <c r="K38" s="587"/>
     </row>
     <row r="39" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A39" s="613" t="s">
+      <c r="A39" s="610" t="s">
         <v>496</v>
       </c>
-      <c r="B39" s="614"/>
-      <c r="C39" s="615"/>
+      <c r="B39" s="611"/>
+      <c r="C39" s="612"/>
       <c r="D39" s="448">
         <f ca="1">(D36-D37)/D38</f>
         <v>66.007018686905155</v>
       </c>
-      <c r="E39" s="559" t="s">
+      <c r="E39" s="613" t="s">
         <v>521</v>
       </c>
-      <c r="F39" s="559"/>
+      <c r="F39" s="613"/>
       <c r="G39" s="137">
         <f>'Input sheet'!B22</f>
         <v>84.5</v>
       </c>
-      <c r="H39" s="604"/>
-      <c r="I39" s="590"/>
-      <c r="J39" s="590"/>
-      <c r="K39" s="590"/>
+      <c r="H39" s="601"/>
+      <c r="I39" s="587"/>
+      <c r="J39" s="587"/>
+      <c r="K39" s="587"/>
       <c r="M39" s="151"/>
     </row>
     <row r="40" spans="1:13">
@@ -51622,6 +51595,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A29:C29"/>
@@ -51638,14 +51619,6 @@
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -51714,51 +51687,51 @@
       <c r="P2" s="299"/>
     </row>
     <row r="3" spans="1:16" ht="16.2" thickBot="1">
-      <c r="A3" s="632" t="str">
+      <c r="A3" s="625" t="str">
         <f>'Input sheet'!B4</f>
         <v>Logitech</v>
       </c>
-      <c r="B3" s="633"/>
-      <c r="C3" s="633"/>
-      <c r="D3" s="633"/>
-      <c r="E3" s="633"/>
-      <c r="F3" s="633"/>
-      <c r="G3" s="633"/>
-      <c r="H3" s="633"/>
-      <c r="I3" s="633"/>
-      <c r="J3" s="633"/>
-      <c r="K3" s="633"/>
-      <c r="L3" s="633"/>
-      <c r="M3" s="633"/>
-      <c r="N3" s="634"/>
-      <c r="O3" s="624">
+      <c r="B3" s="626"/>
+      <c r="C3" s="626"/>
+      <c r="D3" s="626"/>
+      <c r="E3" s="626"/>
+      <c r="F3" s="626"/>
+      <c r="G3" s="626"/>
+      <c r="H3" s="626"/>
+      <c r="I3" s="626"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="626"/>
+      <c r="L3" s="626"/>
+      <c r="M3" s="626"/>
+      <c r="N3" s="627"/>
+      <c r="O3" s="617">
         <f>'Input sheet'!B3</f>
         <v>43935</v>
       </c>
-      <c r="P3" s="625"/>
+      <c r="P3" s="618"/>
     </row>
     <row r="4" spans="1:16" ht="13.8" thickBot="1">
       <c r="A4" s="451"/>
       <c r="P4" s="452"/>
     </row>
     <row r="5" spans="1:16" ht="13.8" thickBot="1">
-      <c r="A5" s="621" t="s">
+      <c r="A5" s="635" t="s">
         <v>853</v>
       </c>
-      <c r="B5" s="622"/>
-      <c r="C5" s="623"/>
-      <c r="E5" s="616" t="s">
+      <c r="B5" s="636"/>
+      <c r="C5" s="637"/>
+      <c r="E5" s="630" t="s">
         <v>849</v>
       </c>
-      <c r="F5" s="617"/>
-      <c r="H5" s="616" t="s">
+      <c r="F5" s="631"/>
+      <c r="H5" s="630" t="s">
         <v>850</v>
       </c>
-      <c r="I5" s="617"/>
-      <c r="K5" s="616" t="s">
+      <c r="I5" s="631"/>
+      <c r="K5" s="630" t="s">
         <v>851</v>
       </c>
-      <c r="L5" s="617"/>
+      <c r="L5" s="631"/>
       <c r="P5" s="452"/>
     </row>
     <row r="6" spans="1:16" ht="14.1" customHeight="1">
@@ -51769,25 +51742,25 @@
       <c r="C6" s="374" t="s">
         <v>852</v>
       </c>
-      <c r="E6" s="626" t="str">
+      <c r="E6" s="619" t="str">
         <f>'Stories to Numbers'!G9</f>
         <v>Disruption platform in multiple businesses</v>
       </c>
-      <c r="F6" s="627"/>
-      <c r="H6" s="626" t="str">
+      <c r="F6" s="620"/>
+      <c r="H6" s="619" t="str">
         <f>'Stories to Numbers'!G10</f>
         <v>Margins improve, aided by cloud business &amp; continued economies of scale.</v>
       </c>
-      <c r="I6" s="627"/>
-      <c r="K6" s="626" t="str">
+      <c r="I6" s="620"/>
+      <c r="K6" s="619" t="str">
         <f>'Stories to Numbers'!G12</f>
         <v>Maintained at Amazon's current level</v>
       </c>
-      <c r="L6" s="627"/>
-      <c r="O6" s="635" t="s">
+      <c r="L6" s="620"/>
+      <c r="O6" s="628" t="s">
         <v>535</v>
       </c>
-      <c r="P6" s="636"/>
+      <c r="P6" s="629"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="453" t="s">
@@ -51801,12 +51774,12 @@
         <f>'Input sheet'!K25</f>
         <v>5.7764980544747248E-3</v>
       </c>
-      <c r="E7" s="628"/>
-      <c r="F7" s="629"/>
-      <c r="H7" s="628"/>
-      <c r="I7" s="629"/>
-      <c r="K7" s="628"/>
-      <c r="L7" s="629"/>
+      <c r="E7" s="621"/>
+      <c r="F7" s="622"/>
+      <c r="H7" s="621"/>
+      <c r="I7" s="622"/>
+      <c r="K7" s="621"/>
+      <c r="L7" s="622"/>
       <c r="O7" s="358" t="s">
         <v>848</v>
       </c>
@@ -51823,12 +51796,12 @@
         <f>'Valuation output'!B3</f>
         <v>4412.1849999999995</v>
       </c>
-      <c r="E8" s="628"/>
-      <c r="F8" s="629"/>
-      <c r="H8" s="628"/>
-      <c r="I8" s="629"/>
-      <c r="K8" s="628"/>
-      <c r="L8" s="629"/>
+      <c r="E8" s="621"/>
+      <c r="F8" s="622"/>
+      <c r="H8" s="621"/>
+      <c r="I8" s="622"/>
+      <c r="K8" s="621"/>
+      <c r="L8" s="622"/>
       <c r="O8" s="358" t="s">
         <v>135</v>
       </c>
@@ -51849,12 +51822,12 @@
         <f>'Input sheet'!K26</f>
         <v>0.11390914392035238</v>
       </c>
-      <c r="E9" s="628"/>
-      <c r="F9" s="629"/>
-      <c r="H9" s="628"/>
-      <c r="I9" s="629"/>
-      <c r="K9" s="628"/>
-      <c r="L9" s="629"/>
+      <c r="E9" s="621"/>
+      <c r="F9" s="622"/>
+      <c r="H9" s="621"/>
+      <c r="I9" s="622"/>
+      <c r="K9" s="621"/>
+      <c r="L9" s="622"/>
       <c r="O9" s="358" t="s">
         <v>525</v>
       </c>
@@ -51871,12 +51844,12 @@
         <f>'Valuation output'!B5</f>
         <v>717.38540000000012</v>
       </c>
-      <c r="E10" s="628"/>
-      <c r="F10" s="629"/>
-      <c r="H10" s="628"/>
-      <c r="I10" s="629"/>
-      <c r="K10" s="628"/>
-      <c r="L10" s="629"/>
+      <c r="E10" s="621"/>
+      <c r="F10" s="622"/>
+      <c r="H10" s="621"/>
+      <c r="I10" s="622"/>
+      <c r="K10" s="621"/>
+      <c r="L10" s="622"/>
       <c r="O10" s="358" t="s">
         <v>471</v>
       </c>
@@ -51893,22 +51866,22 @@
         <f>'Valuation output'!B7</f>
         <v>609.77759000000003</v>
       </c>
-      <c r="E11" s="628"/>
-      <c r="F11" s="629"/>
-      <c r="H11" s="628"/>
-      <c r="I11" s="629"/>
-      <c r="K11" s="628"/>
-      <c r="L11" s="629"/>
+      <c r="E11" s="621"/>
+      <c r="F11" s="622"/>
+      <c r="H11" s="621"/>
+      <c r="I11" s="622"/>
+      <c r="K11" s="621"/>
+      <c r="L11" s="622"/>
       <c r="P11" s="455"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="451"/>
-      <c r="E12" s="630"/>
-      <c r="F12" s="631"/>
-      <c r="H12" s="630"/>
-      <c r="I12" s="631"/>
-      <c r="K12" s="630"/>
-      <c r="L12" s="631"/>
+      <c r="E12" s="623"/>
+      <c r="F12" s="624"/>
+      <c r="H12" s="623"/>
+      <c r="I12" s="624"/>
+      <c r="K12" s="623"/>
+      <c r="L12" s="624"/>
       <c r="P12" s="455"/>
     </row>
     <row r="13" spans="1:16">
@@ -52648,78 +52621,78 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="451"/>
-      <c r="D32" s="616" t="s">
+      <c r="D32" s="630" t="s">
         <v>858</v>
       </c>
-      <c r="E32" s="617"/>
-      <c r="G32" s="616" t="s">
+      <c r="E32" s="631"/>
+      <c r="G32" s="630" t="s">
         <v>859</v>
       </c>
-      <c r="H32" s="618"/>
-      <c r="I32" s="617"/>
+      <c r="H32" s="632"/>
+      <c r="I32" s="631"/>
       <c r="P32" s="452"/>
     </row>
     <row r="33" spans="1:16" ht="14.1" customHeight="1">
       <c r="A33" s="451"/>
-      <c r="D33" s="619" t="str">
+      <c r="D33" s="633" t="str">
         <f>'Stories to Numbers'!G14</f>
         <v>Cost of capital close to median company</v>
       </c>
-      <c r="E33" s="619"/>
-      <c r="G33" s="619" t="str">
+      <c r="E33" s="633"/>
+      <c r="G33" s="633" t="str">
         <f>'Stories to Numbers'!G13</f>
         <v>Strong competitive edges</v>
       </c>
-      <c r="H33" s="619"/>
-      <c r="I33" s="619"/>
+      <c r="H33" s="633"/>
+      <c r="I33" s="633"/>
       <c r="P33" s="452"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="451"/>
-      <c r="D34" s="619"/>
-      <c r="E34" s="619"/>
-      <c r="G34" s="619"/>
-      <c r="H34" s="619"/>
-      <c r="I34" s="619"/>
+      <c r="D34" s="633"/>
+      <c r="E34" s="633"/>
+      <c r="G34" s="633"/>
+      <c r="H34" s="633"/>
+      <c r="I34" s="633"/>
       <c r="P34" s="452"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="451"/>
-      <c r="D35" s="619"/>
-      <c r="E35" s="619"/>
-      <c r="G35" s="619"/>
-      <c r="H35" s="619"/>
-      <c r="I35" s="619"/>
+      <c r="D35" s="633"/>
+      <c r="E35" s="633"/>
+      <c r="G35" s="633"/>
+      <c r="H35" s="633"/>
+      <c r="I35" s="633"/>
       <c r="P35" s="452"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="451"/>
-      <c r="D36" s="619"/>
-      <c r="E36" s="619"/>
-      <c r="G36" s="619"/>
-      <c r="H36" s="619"/>
-      <c r="I36" s="619"/>
+      <c r="D36" s="633"/>
+      <c r="E36" s="633"/>
+      <c r="G36" s="633"/>
+      <c r="H36" s="633"/>
+      <c r="I36" s="633"/>
       <c r="P36" s="452"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="451"/>
-      <c r="D37" s="619"/>
-      <c r="E37" s="619"/>
-      <c r="G37" s="619"/>
-      <c r="H37" s="619"/>
-      <c r="I37" s="619"/>
+      <c r="D37" s="633"/>
+      <c r="E37" s="633"/>
+      <c r="G37" s="633"/>
+      <c r="H37" s="633"/>
+      <c r="I37" s="633"/>
       <c r="P37" s="452"/>
     </row>
     <row r="38" spans="1:16" ht="13.8" thickBot="1">
       <c r="A38" s="463"/>
       <c r="B38" s="464"/>
       <c r="C38" s="464"/>
-      <c r="D38" s="620"/>
-      <c r="E38" s="620"/>
+      <c r="D38" s="634"/>
+      <c r="E38" s="634"/>
       <c r="F38" s="464"/>
-      <c r="G38" s="620"/>
-      <c r="H38" s="620"/>
-      <c r="I38" s="620"/>
+      <c r="G38" s="634"/>
+      <c r="H38" s="634"/>
+      <c r="I38" s="634"/>
       <c r="J38" s="464"/>
       <c r="K38" s="464"/>
       <c r="L38" s="464"/>
@@ -52730,6 +52703,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D33:E38"/>
+    <mergeCell ref="G33:I38"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="E6:F12"/>
     <mergeCell ref="H6:I12"/>
@@ -52739,11 +52717,6 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D33:E38"/>
-    <mergeCell ref="G33:I38"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -52775,10 +52748,10 @@
       </c>
       <c r="B1" s="252"/>
       <c r="C1" s="253"/>
-      <c r="D1" s="639" t="s">
+      <c r="D1" s="640" t="s">
         <v>775</v>
       </c>
-      <c r="E1" s="640"/>
+      <c r="E1" s="641"/>
       <c r="G1" s="248" t="s">
         <v>781</v>
       </c>
@@ -53201,11 +53174,11 @@
     </row>
     <row r="37" spans="1:6" s="76" customFormat="1" ht="15.6" thickBot="1">
       <c r="A37" s="78"/>
-      <c r="B37" s="637" t="str">
+      <c r="B37" s="638" t="str">
         <f ca="1">IF(B36="NA","Value is negative. See below",IF(B36&gt;2,"Value seems high. See below",IF(B36&lt;0.5,"Value seems low. See below"," ")))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C37" s="638"/>
+      <c r="C37" s="639"/>
       <c r="D37" s="271"/>
       <c r="E37" s="272"/>
       <c r="F37" s="6"/>
@@ -53311,18 +53284,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.899999999999999" customHeight="1">
-      <c r="A1" s="641" t="s">
+      <c r="A1" s="642" t="s">
         <v>820</v>
       </c>
-      <c r="B1" s="642"/>
-      <c r="C1" s="642"/>
-      <c r="D1" s="642"/>
+      <c r="B1" s="643"/>
+      <c r="C1" s="643"/>
+      <c r="D1" s="643"/>
     </row>
     <row r="2" spans="1:7" ht="38.1" customHeight="1">
-      <c r="A2" s="641"/>
-      <c r="B2" s="642"/>
-      <c r="C2" s="642"/>
-      <c r="D2" s="642"/>
+      <c r="A2" s="642"/>
+      <c r="B2" s="643"/>
+      <c r="C2" s="643"/>
+      <c r="D2" s="643"/>
     </row>
     <row r="3" spans="1:7" s="297" customFormat="1" ht="17.399999999999999">
       <c r="A3" s="239" t="s">
@@ -53697,34 +53670,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="646" t="s">
+      <c r="A1" s="647" t="s">
         <v>772</v>
       </c>
-      <c r="B1" s="647"/>
-      <c r="C1" s="647"/>
-      <c r="D1" s="647"/>
-      <c r="E1" s="647"/>
-      <c r="F1" s="647"/>
-      <c r="G1" s="647"/>
-      <c r="H1" s="647"/>
-      <c r="I1" s="647"/>
-      <c r="J1" s="647"/>
-      <c r="K1" s="647"/>
-      <c r="L1" s="648"/>
+      <c r="B1" s="648"/>
+      <c r="C1" s="648"/>
+      <c r="D1" s="648"/>
+      <c r="E1" s="648"/>
+      <c r="F1" s="648"/>
+      <c r="G1" s="648"/>
+      <c r="H1" s="648"/>
+      <c r="I1" s="648"/>
+      <c r="J1" s="648"/>
+      <c r="K1" s="648"/>
+      <c r="L1" s="649"/>
     </row>
     <row r="2" spans="1:20" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="649"/>
-      <c r="B2" s="650"/>
-      <c r="C2" s="650"/>
-      <c r="D2" s="650"/>
-      <c r="E2" s="650"/>
-      <c r="F2" s="650"/>
-      <c r="G2" s="650"/>
-      <c r="H2" s="650"/>
-      <c r="I2" s="650"/>
-      <c r="J2" s="650"/>
-      <c r="K2" s="650"/>
-      <c r="L2" s="651"/>
+      <c r="A2" s="650"/>
+      <c r="B2" s="651"/>
+      <c r="C2" s="651"/>
+      <c r="D2" s="651"/>
+      <c r="E2" s="651"/>
+      <c r="F2" s="651"/>
+      <c r="G2" s="651"/>
+      <c r="H2" s="651"/>
+      <c r="I2" s="651"/>
+      <c r="J2" s="651"/>
+      <c r="K2" s="651"/>
+      <c r="L2" s="652"/>
     </row>
     <row r="4" spans="1:20" ht="15.6">
       <c r="A4" s="239" t="s">
@@ -54093,19 +54066,19 @@
       <c r="G19" s="191"/>
       <c r="H19" s="191"/>
       <c r="I19" s="191"/>
-      <c r="J19" s="643" t="s">
+      <c r="J19" s="644" t="s">
         <v>620</v>
       </c>
-      <c r="K19" s="644"/>
-      <c r="L19" s="644"/>
-      <c r="M19" s="644"/>
-      <c r="N19" s="644"/>
-      <c r="O19" s="644"/>
-      <c r="P19" s="644"/>
-      <c r="Q19" s="644"/>
-      <c r="R19" s="644"/>
-      <c r="S19" s="644"/>
-      <c r="T19" s="645"/>
+      <c r="K19" s="645"/>
+      <c r="L19" s="645"/>
+      <c r="M19" s="645"/>
+      <c r="N19" s="645"/>
+      <c r="O19" s="645"/>
+      <c r="P19" s="645"/>
+      <c r="Q19" s="645"/>
+      <c r="R19" s="645"/>
+      <c r="S19" s="645"/>
+      <c r="T19" s="646"/>
     </row>
     <row r="20" spans="1:20" s="74" customFormat="1" ht="15.6">
       <c r="A20" s="318" t="s">
